--- a/Assignment1/DataDictionary_Clean.xlsx
+++ b/Assignment1/DataDictionary_Clean.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="460" windowWidth="13420" windowHeight="17300" tabRatio="500"/>
+    <workbookView xWindow="4200" yWindow="460" windowWidth="20440" windowHeight="17300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="659">
   <si>
     <t>MSSubClass: Identifies the type of dwelling involved in the sale.</t>
   </si>
@@ -1975,13 +1975,43 @@
   </si>
   <si>
     <t>BedroomAbvGr</t>
+  </si>
+  <si>
+    <t>Missing values</t>
+  </si>
+  <si>
+    <t>Zeroes</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>flag?</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>drop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2004,6 +2034,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2028,8 +2063,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2309,10 +2345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:A80"/>
+    <sheetView tabSelected="1" topLeftCell="B73" zoomScale="138" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2321,7 +2357,7 @@
     <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>643</v>
       </c>
@@ -2331,8 +2367,17 @@
       <c r="C1" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>649</v>
+      </c>
+      <c r="E1" t="s">
+        <v>650</v>
+      </c>
+      <c r="F1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>492</v>
       </c>
@@ -2342,8 +2387,11 @@
       <c r="C2" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="1">
+        <v>0.93767100000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>495</v>
       </c>
@@ -2354,7 +2402,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>497</v>
       </c>
@@ -2364,8 +2412,11 @@
       <c r="C4" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>499</v>
       </c>
@@ -2376,7 +2427,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>505</v>
       </c>
@@ -2387,7 +2438,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>507</v>
       </c>
@@ -2398,7 +2449,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>513</v>
       </c>
@@ -2408,8 +2459,11 @@
       <c r="C8" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>517</v>
       </c>
@@ -2420,7 +2474,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>519</v>
       </c>
@@ -2430,8 +2484,11 @@
       <c r="C10" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>521</v>
       </c>
@@ -2441,8 +2498,11 @@
       <c r="C11" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>523</v>
       </c>
@@ -2453,7 +2513,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>527</v>
       </c>
@@ -2464,7 +2524,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>529</v>
       </c>
@@ -2474,8 +2534,11 @@
       <c r="C14" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>531</v>
       </c>
@@ -2485,8 +2548,11 @@
       <c r="C15" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>533</v>
       </c>
@@ -2497,7 +2563,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>535</v>
       </c>
@@ -2507,8 +2573,11 @@
       <c r="C17" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="1">
+        <v>0.80753399999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>537</v>
       </c>
@@ -2519,7 +2588,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>541</v>
       </c>
@@ -2530,7 +2599,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>545</v>
       </c>
@@ -2541,7 +2610,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>551</v>
       </c>
@@ -2551,8 +2620,11 @@
       <c r="C21" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>553</v>
       </c>
@@ -2563,7 +2635,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>555</v>
       </c>
@@ -2573,8 +2645,11 @@
       <c r="C23" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>557</v>
       </c>
@@ -2585,7 +2660,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>559</v>
       </c>
@@ -2596,7 +2671,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>565</v>
       </c>
@@ -2607,7 +2682,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>567</v>
       </c>
@@ -2618,7 +2693,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>569</v>
       </c>
@@ -2629,7 +2704,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>573</v>
       </c>
@@ -2640,7 +2715,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>575</v>
       </c>
@@ -2650,8 +2725,11 @@
       <c r="C30" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>577</v>
       </c>
@@ -2661,8 +2739,11 @@
       <c r="C31" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>581</v>
       </c>
@@ -2673,7 +2754,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>585</v>
       </c>
@@ -2684,7 +2765,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>591</v>
       </c>
@@ -2695,7 +2776,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>593</v>
       </c>
@@ -2705,8 +2786,11 @@
       <c r="C35" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" s="1">
+        <v>0.96301400000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>597</v>
       </c>
@@ -2717,7 +2801,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>599</v>
       </c>
@@ -2728,7 +2812,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>601</v>
       </c>
@@ -2739,7 +2823,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>603</v>
       </c>
@@ -2750,7 +2834,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>607</v>
       </c>
@@ -2760,8 +2844,11 @@
       <c r="C40" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>609</v>
       </c>
@@ -2771,8 +2858,11 @@
       <c r="C41" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>611</v>
       </c>
@@ -2783,7 +2873,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>615</v>
       </c>
@@ -2793,8 +2883,14 @@
       <c r="C43" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" s="1">
+        <v>0.99520500000000001</v>
+      </c>
+      <c r="G43" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>617</v>
       </c>
@@ -2805,7 +2901,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>619</v>
       </c>
@@ -2816,7 +2912,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>621</v>
       </c>
@@ -2827,7 +2923,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>623</v>
       </c>
@@ -2838,7 +2934,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>627</v>
       </c>
@@ -2849,7 +2945,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>633</v>
       </c>
@@ -2860,7 +2956,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>637</v>
       </c>
@@ -2871,7 +2967,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>639</v>
       </c>
@@ -2882,7 +2978,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>641</v>
       </c>
@@ -2893,7 +2989,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>486</v>
       </c>
@@ -2903,8 +2999,11 @@
       <c r="C53" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>488</v>
       </c>
@@ -2915,7 +3014,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>490</v>
       </c>
@@ -2925,8 +3024,11 @@
       <c r="C55" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>648</v>
       </c>
@@ -2937,7 +3039,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>501</v>
       </c>
@@ -2948,7 +3050,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>503</v>
       </c>
@@ -2959,7 +3061,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>509</v>
       </c>
@@ -2969,8 +3071,11 @@
       <c r="C59" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>511</v>
       </c>
@@ -2980,8 +3085,11 @@
       <c r="C60" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>515</v>
       </c>
@@ -2992,7 +3100,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>525</v>
       </c>
@@ -3002,8 +3110,11 @@
       <c r="C62" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G62" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>539</v>
       </c>
@@ -3013,8 +3124,11 @@
       <c r="C63" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G63" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>543</v>
       </c>
@@ -3024,8 +3138,14 @@
       <c r="C64" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>651</v>
+      </c>
+      <c r="G64" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>547</v>
       </c>
@@ -3035,8 +3155,11 @@
       <c r="C65" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>549</v>
       </c>
@@ -3046,8 +3169,11 @@
       <c r="C66" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>561</v>
       </c>
@@ -3057,8 +3183,11 @@
       <c r="C67" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>563</v>
       </c>
@@ -3068,8 +3197,11 @@
       <c r="C68" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>571</v>
       </c>
@@ -3079,8 +3211,11 @@
       <c r="C69" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>579</v>
       </c>
@@ -3090,8 +3225,11 @@
       <c r="C70" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>583</v>
       </c>
@@ -3101,8 +3239,11 @@
       <c r="C71" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>587</v>
       </c>
@@ -3113,7 +3254,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>589</v>
       </c>
@@ -3124,7 +3265,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>595</v>
       </c>
@@ -3135,7 +3276,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>605</v>
       </c>
@@ -3145,8 +3286,11 @@
       <c r="C75" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G75" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>613</v>
       </c>
@@ -3156,8 +3300,11 @@
       <c r="C76" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G76" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>625</v>
       </c>
@@ -3168,7 +3315,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>629</v>
       </c>
@@ -3179,7 +3326,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>631</v>
       </c>
@@ -3189,8 +3336,11 @@
       <c r="C79" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E79" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>635</v>
       </c>
@@ -3199,6 +3349,9 @@
       </c>
       <c r="C80" t="s">
         <v>647</v>
+      </c>
+      <c r="G80" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -3214,8 +3367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B523"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
